--- a/data/trans_orig/P19D-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P19D-Dificultad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4107</v>
+        <v>4457</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002222869668084715</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01035142574816915</v>
+        <v>0.01123363869516878</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5932</v>
+        <v>5624</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.001392899662938091</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.008119929241196425</v>
+        <v>0.007697408859015219</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6650</v>
+        <v>6431</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001684992225106729</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.005899088143779493</v>
+        <v>0.005704382795818811</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>347762</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>332599</v>
+        <v>332482</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>359525</v>
+        <v>359288</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8765190565249351</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.838302821156707</v>
+        <v>0.8380078055741051</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9061671232299221</v>
+        <v>0.9055703344564004</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>634</v>
@@ -836,19 +836,19 @@
         <v>659483</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>641504</v>
+        <v>639921</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>675787</v>
+        <v>673561</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9026523693073489</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8780439060962123</v>
+        <v>0.875877397314458</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9249676303732547</v>
+        <v>0.921921004574746</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>981</v>
@@ -857,19 +857,19 @@
         <v>1007245</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>984301</v>
+        <v>984658</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1025786</v>
+        <v>1025461</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8934552341804944</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8731032998395373</v>
+        <v>0.8734201727637319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.909901764806926</v>
+        <v>0.9096139354875404</v>
       </c>
     </row>
     <row r="6">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4760</v>
+        <v>4781</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002394528985514119</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01199834843370376</v>
+        <v>0.01204990177719256</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -907,19 +907,19 @@
         <v>11885</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>5971</v>
+        <v>5918</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21262</v>
+        <v>21358</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0162666596121381</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008172452269421858</v>
+        <v>0.008099950765158058</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02910222916100479</v>
+        <v>0.02923320164378438</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>11</v>
@@ -928,19 +928,19 @@
         <v>12835</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>6388</v>
+        <v>6606</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>22409</v>
+        <v>21345</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01138462031873881</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.005666536200698344</v>
+        <v>0.00585944527396416</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01987745366430429</v>
+        <v>0.01893321889209907</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>47159</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35149</v>
+        <v>35808</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>61339</v>
+        <v>62584</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.118863544821466</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08859069203290744</v>
+        <v>0.09025239549924167</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1546034588017293</v>
+        <v>0.157739916604294</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>56</v>
@@ -978,19 +978,19 @@
         <v>58221</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44825</v>
+        <v>44667</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>74876</v>
+        <v>73776</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.07968807141757484</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.06135256230806075</v>
+        <v>0.06113640447357741</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1024852160450195</v>
+        <v>0.100979834834142</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>102</v>
@@ -999,19 +999,19 @@
         <v>105380</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>88237</v>
+        <v>87576</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>127079</v>
+        <v>125382</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.09347515327566001</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.07826857000835211</v>
+        <v>0.07768248287146814</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1127231801134455</v>
+        <v>0.1112176079463308</v>
       </c>
     </row>
     <row r="8">
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6108</v>
+        <v>5278</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.002189586395633783</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.007628715829172613</v>
+        <v>0.006591764904158793</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>4</v>
@@ -1124,19 +1124,19 @@
         <v>4554</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>1077</v>
+        <v>1526</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>10988</v>
+        <v>12055</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.00535784440590053</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.001267128103201039</v>
+        <v>0.00179571517078445</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.0129280602510876</v>
+        <v>0.01418336366512298</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>6</v>
@@ -1145,19 +1145,19 @@
         <v>6307</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>2810</v>
+        <v>1954</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>13476</v>
+        <v>13884</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.003821045540475805</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.001702538408700113</v>
+        <v>0.001183605075721214</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.008164384296140442</v>
+        <v>0.008411823129244517</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>729802</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>712931</v>
+        <v>713290</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>744802</v>
+        <v>744798</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9115352340601639</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8904641675686564</v>
+        <v>0.8909126210982928</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9302715132774202</v>
+        <v>0.9302659304236149</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>759</v>
@@ -1195,19 +1195,19 @@
         <v>779410</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>763656</v>
+        <v>761729</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>794011</v>
+        <v>794969</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9170131066682763</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.898477550646596</v>
+        <v>0.8962105837937311</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9341924273709769</v>
+        <v>0.9353187853584294</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1471</v>
@@ -1216,19 +1216,19 @@
         <v>1509210</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1487099</v>
+        <v>1483916</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1532246</v>
+        <v>1532388</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9143560034961834</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9009597548611695</v>
+        <v>0.8990314364857075</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9283123891892342</v>
+        <v>0.9283979738390881</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>10133</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4659</v>
+        <v>5017</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19136</v>
+        <v>19417</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0126562538966447</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005819374715578952</v>
+        <v>0.006266865813306361</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.02390145164007527</v>
+        <v>0.02425246718771229</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1266,19 +1266,19 @@
         <v>7956</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3848</v>
+        <v>3180</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15159</v>
+        <v>14895</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.009360744618061237</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.004527515045385703</v>
+        <v>0.003741196688731457</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.01783571319160523</v>
+        <v>0.01752437245943448</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1287,19 +1287,19 @@
         <v>18089</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10616</v>
+        <v>10635</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28039</v>
+        <v>29974</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01095926812969194</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006431749984707353</v>
+        <v>0.006443338336370359</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.01698740489776604</v>
+        <v>0.0181596194228936</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>58941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>45799</v>
+        <v>45246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>75529</v>
+        <v>73479</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07361892564755768</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05720331301014309</v>
+        <v>0.05651328325664854</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09433713613472273</v>
+        <v>0.09177626959586171</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>56</v>
@@ -1337,19 +1337,19 @@
         <v>58024</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>44088</v>
+        <v>44562</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>72625</v>
+        <v>74570</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0682683043077619</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05187194402764241</v>
+        <v>0.05242937461031365</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.08544723645154703</v>
+        <v>0.08773463837963821</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>114</v>
@@ -1358,19 +1358,19 @@
         <v>116966</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97807</v>
+        <v>96561</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>140101</v>
+        <v>137765</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0708636828336488</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0592562057401437</v>
+        <v>0.05850147623457597</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08488029348174804</v>
+        <v>0.08346528875014522</v>
       </c>
     </row>
     <row r="13">
@@ -1478,7 +1478,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>4960</v>
+        <v>6120</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0014760817865404</v>
@@ -1487,7 +1487,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.005979133113451864</v>
+        <v>0.00737667555246381</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7739</v>
+        <v>6178</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0007114905556593583</v>
@@ -1508,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.00449644229663541</v>
+        <v>0.003589296216125698</v>
       </c>
     </row>
     <row r="15">
@@ -1525,19 +1525,19 @@
         <v>820709</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>804397</v>
+        <v>803780</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>835140</v>
+        <v>835392</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9205502476157188</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.902253391943949</v>
+        <v>0.9015611395019012</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9367368612832847</v>
+        <v>0.9370196603862082</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>756</v>
@@ -1546,19 +1546,19 @@
         <v>762699</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>746326</v>
+        <v>746358</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>777975</v>
+        <v>776575</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.9193314609555681</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8995950989476572</v>
+        <v>0.8996336918734315</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9377446465241596</v>
+        <v>0.9360567209239317</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1560</v>
@@ -1567,19 +1567,19 @@
         <v>1583409</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1557696</v>
+        <v>1557621</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1605180</v>
+        <v>1606956</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.9199627766463132</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.9050238949821441</v>
+        <v>0.9049798751569944</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9326119802138495</v>
+        <v>0.9336441037172198</v>
       </c>
     </row>
     <row r="16">
@@ -1596,19 +1596,19 @@
         <v>21706</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14874</v>
+        <v>14362</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>32200</v>
+        <v>33236</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02434612134398348</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01668389929836631</v>
+        <v>0.01610887722558479</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03611677107083241</v>
+        <v>0.03727884105962122</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>16</v>
@@ -1617,19 +1617,19 @@
         <v>16648</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9272</v>
+        <v>9739</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>25387</v>
+        <v>26531</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02006670556774577</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01117630516037021</v>
+        <v>0.01173914149350415</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03060053313099713</v>
+        <v>0.03197906401081799</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1638,19 +1638,19 @@
         <v>38353</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>27509</v>
+        <v>27735</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>53571</v>
+        <v>53117</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02228338746548409</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01598289384363697</v>
+        <v>0.01611407248188806</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03112458887150512</v>
+        <v>0.03086093692239447</v>
       </c>
     </row>
     <row r="17">
@@ -1667,19 +1667,19 @@
         <v>49127</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36507</v>
+        <v>36704</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63170</v>
+        <v>64894</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05510363104029772</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04094808284936374</v>
+        <v>0.04116879450377252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07085438181262102</v>
+        <v>0.0727884569427294</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -1688,19 +1688,19 @@
         <v>49052</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>37718</v>
+        <v>37485</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64881</v>
+        <v>63818</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05912575169014579</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04546346847579424</v>
+        <v>0.04518270569179577</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07820490535992741</v>
+        <v>0.07692373870088796</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>96</v>
@@ -1709,19 +1709,19 @@
         <v>98179</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>80030</v>
+        <v>78993</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>121594</v>
+        <v>118192</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.05704234533254338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04649754090443783</v>
+        <v>0.04589485483714791</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.07064620971644786</v>
+        <v>0.06866977561789661</v>
       </c>
     </row>
     <row r="18">
@@ -1860,19 +1860,19 @@
         <v>296600</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>282038</v>
+        <v>281743</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>307636</v>
+        <v>307504</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8724503304830202</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8296156768179762</v>
+        <v>0.8287480047303405</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9049121183190003</v>
+        <v>0.9045241705748547</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>252</v>
@@ -1881,19 +1881,19 @@
         <v>251811</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>241002</v>
+        <v>240720</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>260539</v>
+        <v>260337</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9037738074767107</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8649779852741354</v>
+        <v>0.8639655309661801</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9351001652956888</v>
+        <v>0.9343725012358413</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>541</v>
@@ -1902,19 +1902,19 @@
         <v>548411</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>531110</v>
+        <v>532604</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>562985</v>
+        <v>564408</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8865590252639686</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8585899747651139</v>
+        <v>0.8610049839129572</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9101181983978885</v>
+        <v>0.9124188813383145</v>
       </c>
     </row>
     <row r="21">
@@ -1931,19 +1931,19 @@
         <v>23087</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14807</v>
+        <v>13963</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>33913</v>
+        <v>33822</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.06790935194942917</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0435548364585625</v>
+        <v>0.04107191343137263</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.09975615572116503</v>
+        <v>0.09948781860630483</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>13</v>
@@ -1952,19 +1952,19 @@
         <v>13200</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>7613</v>
+        <v>7484</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>21486</v>
+        <v>21912</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.04737607746987929</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02732255396922304</v>
+        <v>0.02686245924173306</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.07711570188931223</v>
+        <v>0.07864499684957214</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>34</v>
@@ -1973,19 +1973,19 @@
         <v>36287</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>25882</v>
+        <v>25617</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>50447</v>
+        <v>48821</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05866077132270755</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.04184089449637554</v>
+        <v>0.04141205273812847</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.08155206652550852</v>
+        <v>0.07892392462593278</v>
       </c>
     </row>
     <row r="22">
@@ -2002,19 +2002,19 @@
         <v>20275</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13168</v>
+        <v>12745</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31210</v>
+        <v>30324</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05964031756755063</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03873435162364492</v>
+        <v>0.03748895727157475</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09180368046029885</v>
+        <v>0.08919756481809962</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>13</v>
@@ -2023,19 +2023,19 @@
         <v>13611</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>7082</v>
+        <v>7923</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>22105</v>
+        <v>22453</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.04885011505341001</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02541963085994207</v>
+        <v>0.02843576430564866</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0793351635078291</v>
+        <v>0.08058513023189501</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -2044,19 +2044,19 @@
         <v>33886</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>24192</v>
+        <v>23858</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47091</v>
+        <v>45728</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05478020341332385</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03910853461994384</v>
+        <v>0.03856855114547472</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.07612641550339536</v>
+        <v>0.07392291273557748</v>
       </c>
     </row>
     <row r="23">
@@ -2148,19 +2148,19 @@
         <v>2635</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>867</v>
+        <v>874</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>7051</v>
+        <v>7056</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001084849863070107</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.0003570819548862488</v>
+        <v>0.0003597956691856555</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.002902977892399258</v>
+        <v>0.002905032982753261</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>6</v>
@@ -2169,19 +2169,19 @@
         <v>6796</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2553</v>
+        <v>2598</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>13818</v>
+        <v>15215</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002527570066969836</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.0009494282570381862</v>
+        <v>0.0009661950921907831</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.00513914626176473</v>
+        <v>0.005658708747005445</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>9</v>
@@ -2190,19 +2190,19 @@
         <v>9431</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>4511</v>
+        <v>4562</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>17507</v>
+        <v>17146</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.001842845581924027</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0008814941334750536</v>
+        <v>0.0008915155633235582</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.003420935512994275</v>
+        <v>0.003350361057953524</v>
       </c>
     </row>
     <row r="25">
@@ -2219,19 +2219,19 @@
         <v>2194871</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2163470</v>
+        <v>2163386</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2221999</v>
+        <v>2223376</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9036538833791939</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8907256788182193</v>
+        <v>0.8906911660601248</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9148225496272411</v>
+        <v>0.9153897721657557</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2401</v>
@@ -2240,19 +2240,19 @@
         <v>2453404</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2424006</v>
+        <v>2420247</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2482270</v>
+        <v>2481781</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9124543979345821</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9015210770282084</v>
+        <v>0.900123135805953</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9231903100666141</v>
+        <v>0.9230082126238959</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4553</v>
@@ -2261,19 +2261,19 @@
         <v>4648276</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4605842</v>
+        <v>4604475</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4691063</v>
+        <v>4685692</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9082776159218342</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8999860234800419</v>
+        <v>0.8997187794108112</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9166381603078281</v>
+        <v>0.9155888114462404</v>
       </c>
     </row>
     <row r="26">
@@ -2290,19 +2290,19 @@
         <v>55875</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>42262</v>
+        <v>40964</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>73898</v>
+        <v>71180</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02300444964365612</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01739968232221056</v>
+        <v>0.016865277637957</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03042462097436061</v>
+        <v>0.02930548498911918</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>47</v>
@@ -2311,19 +2311,19 @@
         <v>49688</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>36136</v>
+        <v>36190</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>64778</v>
+        <v>66379</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01847982169131401</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01343943743626464</v>
+        <v>0.01345938755123727</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02409177387017469</v>
+        <v>0.02468726738736376</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>101</v>
@@ -2332,19 +2332,19 @@
         <v>105564</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>86339</v>
+        <v>86488</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>129629</v>
+        <v>128604</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02062723983678461</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0168706824242519</v>
+        <v>0.0168998305753913</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0253296457740039</v>
+        <v>0.0251293163358649</v>
       </c>
     </row>
     <row r="27">
@@ -2361,19 +2361,19 @@
         <v>175503</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>152499</v>
+        <v>150912</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>204361</v>
+        <v>203290</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.07225681711407977</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0627854931714973</v>
+        <v>0.06213210651548629</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08413777328605097</v>
+        <v>0.08369680456011108</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>174</v>
@@ -2382,19 +2382,19 @@
         <v>178908</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>155279</v>
+        <v>152335</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>205406</v>
+        <v>205702</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.06653821030713408</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05775033025586709</v>
+        <v>0.05665564117740169</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.0763933260577626</v>
+        <v>0.07650323610849326</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>345</v>
@@ -2403,19 +2403,19 @@
         <v>354411</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>317660</v>
+        <v>320390</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>390730</v>
+        <v>392873</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.0692522986594571</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06207101285608897</v>
+        <v>0.06260445887979693</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07634896519441417</v>
+        <v>0.07676783710727879</v>
       </c>
     </row>
     <row r="28">
@@ -2794,19 +2794,19 @@
         <v>641332</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>615543</v>
+        <v>617298</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>665297</v>
+        <v>664749</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.777870343923669</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.74659160665617</v>
+        <v>0.7487201091706214</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8069380517264901</v>
+        <v>0.8062728534488212</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>723</v>
@@ -2815,19 +2815,19 @@
         <v>786202</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>761779</v>
+        <v>758560</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>808242</v>
+        <v>809768</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8289496732424912</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8031982551134784</v>
+        <v>0.7998044871441657</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8521874760583957</v>
+        <v>0.8537967212110936</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1327</v>
@@ -2836,19 +2836,19 @@
         <v>1427534</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1391053</v>
+        <v>1390944</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1460230</v>
+        <v>1459846</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8051957280785922</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7846190246071596</v>
+        <v>0.7845574112168133</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8236378692370417</v>
+        <v>0.8234210108480502</v>
       </c>
     </row>
     <row r="6">
@@ -2865,19 +2865,19 @@
         <v>13577</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6980</v>
+        <v>7082</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>24738</v>
+        <v>24243</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01646731033319371</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.008465513994811401</v>
+        <v>0.008589801364822307</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03000474408540818</v>
+        <v>0.02940416868579674</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>12</v>
@@ -2886,19 +2886,19 @@
         <v>13231</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>6908</v>
+        <v>7224</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>21971</v>
+        <v>23778</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0139502923880834</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.007283621414342539</v>
+        <v>0.007616784823330669</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02316595852040625</v>
+        <v>0.02507125761697177</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -2907,19 +2907,19 @@
         <v>26808</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>17190</v>
+        <v>16939</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>39485</v>
+        <v>40111</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01512080709612732</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.00969608409349035</v>
+        <v>0.009554375892449358</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02227147814941589</v>
+        <v>0.02262450361470379</v>
       </c>
     </row>
     <row r="7">
@@ -2936,19 +2936,19 @@
         <v>169563</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>147283</v>
+        <v>147242</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>194430</v>
+        <v>194158</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2056623457431373</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1786393163798931</v>
+        <v>0.1785891352011556</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2358244988972138</v>
+        <v>0.235494253994358</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>138</v>
@@ -2957,19 +2957,19 @@
         <v>148999</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>127697</v>
+        <v>126754</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>173919</v>
+        <v>175059</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1571000343694254</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1346396573833654</v>
+        <v>0.133645889293951</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1833753853354918</v>
+        <v>0.1845771546965602</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>295</v>
@@ -2978,19 +2978,19 @@
         <v>318561</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>287475</v>
+        <v>286122</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>352189</v>
+        <v>353383</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1796834648252805</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1621492174706651</v>
+        <v>0.1613859482738781</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1986511055907667</v>
+        <v>0.1993244271074713</v>
       </c>
     </row>
     <row r="8">
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7612</v>
+        <v>7209</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001536111893582198</v>
@@ -3094,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.009064977456859641</v>
+        <v>0.008585515561425509</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -3119,7 +3119,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>7803</v>
+        <v>6473</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0007159864453469516</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.004331092786364206</v>
+        <v>0.003592770865425247</v>
       </c>
     </row>
     <row r="10">
@@ -3145,19 +3145,19 @@
         <v>695983</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>672669</v>
+        <v>671927</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>716338</v>
+        <v>716468</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8288258979723946</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8010620594720749</v>
+        <v>0.8001791175086992</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8530669028717868</v>
+        <v>0.853221826477667</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>778</v>
@@ -3166,19 +3166,19 @@
         <v>833142</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>810053</v>
+        <v>810266</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>853737</v>
+        <v>853970</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8661817090994625</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8421769120520526</v>
+        <v>0.8423979601053391</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8875929241044627</v>
+        <v>0.8878356041363712</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1443</v>
@@ -3187,19 +3187,19 @@
         <v>1529125</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1495983</v>
+        <v>1495393</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1562762</v>
+        <v>1562901</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.84877005143724</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8303742136386492</v>
+        <v>0.8300467323585285</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8674412702544423</v>
+        <v>0.8675180289399443</v>
       </c>
     </row>
     <row r="11">
@@ -3216,19 +3216,19 @@
         <v>21485</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13146</v>
+        <v>13304</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>32557</v>
+        <v>33180</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02558643569095129</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01565485879532345</v>
+        <v>0.01584337239222879</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03877065234900724</v>
+        <v>0.03951260360935563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>20</v>
@@ -3237,19 +3237,19 @@
         <v>23695</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>14902</v>
+        <v>14631</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35928</v>
+        <v>36794</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02463501638550568</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01549305693681717</v>
+        <v>0.01521097772594909</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03735271316866544</v>
+        <v>0.03825285145988747</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>39</v>
@@ -3258,19 +3258,19 @@
         <v>45181</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32049</v>
+        <v>32598</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>61500</v>
+        <v>61051</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02507847582969493</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01778919485292462</v>
+        <v>0.01809396750980782</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03413678900589671</v>
+        <v>0.0338876361066367</v>
       </c>
     </row>
     <row r="12">
@@ -3287,19 +3287,19 @@
         <v>120963</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>102065</v>
+        <v>100152</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>144440</v>
+        <v>141967</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1440515544430719</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1215458526884132</v>
+        <v>0.1192685023901639</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1720099803322883</v>
+        <v>0.1690645366527504</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -3308,19 +3308,19 @@
         <v>105019</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>85879</v>
+        <v>87001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>126160</v>
+        <v>125509</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1091832745150319</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08928426475379533</v>
+        <v>0.09045130015709114</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1311635212046372</v>
+        <v>0.1304863791664422</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>211</v>
@@ -3329,19 +3329,19 @@
         <v>225982</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>196461</v>
+        <v>196981</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>257154</v>
+        <v>258362</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.125435486287718</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1090496886352698</v>
+        <v>0.109338086000273</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1427380717710365</v>
+        <v>0.1434089385381467</v>
       </c>
     </row>
     <row r="13">
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5024</v>
+        <v>5082</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.001299399833738953</v>
@@ -3445,7 +3445,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0064622282848816</v>
+        <v>0.006536554910801099</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>0</v>
@@ -3470,7 +3470,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>5081</v>
+        <v>5582</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0006387699230146383</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.003212846074761993</v>
+        <v>0.003529247314590524</v>
       </c>
     </row>
     <row r="15">
@@ -3496,19 +3496,19 @@
         <v>668418</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>648442</v>
+        <v>647110</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>687924</v>
+        <v>687455</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.859700252508841</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8340075277312642</v>
+        <v>0.8322947746822991</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.8847879534525248</v>
+        <v>0.8841855652315276</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>671</v>
@@ -3517,19 +3517,19 @@
         <v>716945</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>697938</v>
+        <v>697638</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>734961</v>
+        <v>732864</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.8916017329085041</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8679648359406155</v>
+        <v>0.8675907579476658</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9140069552685098</v>
+        <v>0.911398800695814</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1302</v>
@@ -3538,19 +3538,19 @@
         <v>1385363</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1356999</v>
+        <v>1356570</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1410794</v>
+        <v>1412860</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.875919334273505</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8579860371206621</v>
+        <v>0.8577146207915015</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.8919984919385682</v>
+        <v>0.8933048110216107</v>
       </c>
     </row>
     <row r="16">
@@ -3567,19 +3567,19 @@
         <v>38379</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26765</v>
+        <v>27429</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52476</v>
+        <v>53035</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04936149334904026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03442418729326521</v>
+        <v>0.03527901261733855</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06749280129988089</v>
+        <v>0.06821214290855578</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>20</v>
@@ -3588,19 +3588,19 @@
         <v>22085</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>14086</v>
+        <v>14098</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>33478</v>
+        <v>33174</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02746482615994566</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01751767504095072</v>
+        <v>0.01753289797375681</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04163398549542214</v>
+        <v>0.04125621826934574</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>56</v>
@@ -3609,19 +3609,19 @@
         <v>60463</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>47498</v>
+        <v>46207</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>79451</v>
+        <v>79096</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03822897438552183</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.03003127779442674</v>
+        <v>0.02921506326680524</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05023441297915677</v>
+        <v>0.05000964691081261</v>
       </c>
     </row>
     <row r="17">
@@ -3638,19 +3638,19 @@
         <v>69694</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53366</v>
+        <v>54511</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>86251</v>
+        <v>87299</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08963885430837984</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06863788557371857</v>
+        <v>0.07011021215170213</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1109330274577788</v>
+        <v>0.1122820629013542</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>62</v>
@@ -3659,19 +3659,19 @@
         <v>65079</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>49831</v>
+        <v>50845</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81836</v>
+        <v>81638</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08093344093155029</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06197024393749306</v>
+        <v>0.0632313531034366</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1017723195796461</v>
+        <v>0.1015266563643157</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>126</v>
@@ -3680,19 +3680,19 @@
         <v>134774</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>113672</v>
+        <v>111908</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>158919</v>
+        <v>158773</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.08521292141795858</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07187109937795925</v>
+        <v>0.07075560280343575</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.100479342485484</v>
+        <v>0.1003867980641992</v>
       </c>
     </row>
     <row r="18">
@@ -3831,19 +3831,19 @@
         <v>394309</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>375318</v>
+        <v>376052</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>408577</v>
+        <v>408511</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.8737017760986905</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8316222010672257</v>
+        <v>0.8332497840580793</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9053178073591056</v>
+        <v>0.9051704305765017</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>338</v>
@@ -3852,19 +3852,19 @@
         <v>370128</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>354684</v>
+        <v>356016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>382093</v>
+        <v>382111</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8928360923752662</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8555823555160391</v>
+        <v>0.8587951392105739</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9216977977817535</v>
+        <v>0.9217414380235852</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>703</v>
@@ -3873,19 +3873,19 @@
         <v>764436</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>743019</v>
+        <v>741966</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>785803</v>
+        <v>784403</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8828628146315298</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8581283969696667</v>
+        <v>0.8569116914179766</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9075407196964372</v>
+        <v>0.9059232495780276</v>
       </c>
     </row>
     <row r="21">
@@ -3902,19 +3902,19 @@
         <v>23953</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>14216</v>
+        <v>14056</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38339</v>
+        <v>39035</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.05307359765806339</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.03149923890036228</v>
+        <v>0.03114464626272642</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.08495092148862116</v>
+        <v>0.08649234494833299</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>18</v>
@@ -3923,19 +3923,19 @@
         <v>21911</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12936</v>
+        <v>13597</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>34824</v>
+        <v>33180</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.05285457177006875</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.03120588818961709</v>
+        <v>0.03280003828246711</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.08400338680479805</v>
+        <v>0.08003860382817955</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>36</v>
@@ -3944,19 +3944,19 @@
         <v>45864</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>32729</v>
+        <v>33092</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>63921</v>
+        <v>64044</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.05296873346691042</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.0377988876565516</v>
+        <v>0.03821913853947376</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.07382326048961159</v>
+        <v>0.07396588356378291</v>
       </c>
     </row>
     <row r="22">
@@ -3973,19 +3973,19 @@
         <v>33047</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>22327</v>
+        <v>22605</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>47093</v>
+        <v>45125</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.07322462624324608</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04947224142007762</v>
+        <v>0.05008681456155362</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1043483173699161</v>
+        <v>0.09998776644540626</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>21</v>
@@ -3994,19 +3994,19 @@
         <v>22514</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15144</v>
+        <v>14614</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>33340</v>
+        <v>33642</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05430933585466503</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.036531648375269</v>
+        <v>0.03525205801340314</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08042404101427425</v>
+        <v>0.08115161015480644</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>51</v>
@@ -4015,19 +4015,19 @@
         <v>55561</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>41239</v>
+        <v>41833</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>71795</v>
+        <v>71910</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0641684519015598</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04762756548260158</v>
+        <v>0.0483138401153167</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.08291715477138127</v>
+        <v>0.08305048989884177</v>
       </c>
     </row>
     <row r="23">
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8463</v>
+        <v>7520</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.0007950877821540269</v>
@@ -4131,7 +4131,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.002925342198119133</v>
+        <v>0.00259926196086732</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -4156,7 +4156,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8932</v>
+        <v>7963</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0003819675436863069</v>
@@ -4165,7 +4165,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.00148324304860576</v>
+        <v>0.001322331422353282</v>
       </c>
     </row>
     <row r="25">
@@ -4182,19 +4182,19 @@
         <v>2400040</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2354023</v>
+        <v>2355015</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2441389</v>
+        <v>2437199</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8296023547454557</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8136957226561907</v>
+        <v>0.8140386217891769</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8438949187922864</v>
+        <v>0.8424465107733129</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2510</v>
@@ -4203,19 +4203,19 @@
         <v>2706417</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2660161</v>
+        <v>2664839</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2747444</v>
+        <v>2744151</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8649602343680616</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8501770458318978</v>
+        <v>0.8516719179215332</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8780722083373341</v>
+        <v>0.8770196371954891</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4775</v>
@@ -4224,19 +4224,19 @@
         <v>5106458</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>5046514</v>
+        <v>5046165</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>5166425</v>
+        <v>5163539</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.847973981110825</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8380196895601676</v>
+        <v>0.8379617918900493</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8579320758853903</v>
+        <v>0.8574528270282222</v>
       </c>
     </row>
     <row r="26">
@@ -4253,19 +4253,19 @@
         <v>97393</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>77457</v>
+        <v>78238</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>120906</v>
+        <v>120019</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03366519276216318</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02677380430205036</v>
+        <v>0.02704393092692604</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0417926886104814</v>
+        <v>0.04148602309302008</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>70</v>
@@ -4274,19 +4274,19 @@
         <v>80922</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>63330</v>
+        <v>62571</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>104474</v>
+        <v>104802</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02586233965229889</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02024011885544852</v>
+        <v>0.01999731282471704</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03338946258581311</v>
+        <v>0.03349417382465896</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>154</v>
@@ -4295,19 +4295,19 @@
         <v>178315</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>151574</v>
+        <v>152057</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>208305</v>
+        <v>210326</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02961090264498558</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02517021810796859</v>
+        <v>0.02525052061812035</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0345909204738448</v>
+        <v>0.03492655780983075</v>
       </c>
     </row>
     <row r="27">
@@ -4324,19 +4324,19 @@
         <v>393267</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>357591</v>
+        <v>358290</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>433027</v>
+        <v>432373</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.1359373647102271</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1236055665577665</v>
+        <v>0.1238472286748527</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1496807794232967</v>
+        <v>0.1494546814889307</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>318</v>
@@ -4345,19 +4345,19 @@
         <v>341611</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>302894</v>
+        <v>307147</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>376975</v>
+        <v>380172</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.1091774259796395</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.09680369787986487</v>
+        <v>0.09816308005315748</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1204798374989643</v>
+        <v>0.1215015619112598</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>683</v>
@@ -4366,19 +4366,19 @@
         <v>734878</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>681024</v>
+        <v>682255</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>787541</v>
+        <v>788202</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.1220331487005031</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1130903128683076</v>
+        <v>0.1132946033447035</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.1307784552807226</v>
+        <v>0.1308880770899965</v>
       </c>
     </row>
     <row r="28">
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6991</v>
+        <v>7090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.002565093049049086</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.00891248600026791</v>
+        <v>0.009039615386770767</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -4747,7 +4747,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7061</v>
+        <v>7971</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001178602487689406</v>
@@ -4756,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.004136232150208496</v>
+        <v>0.004669348074215237</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>655411</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>632242</v>
+        <v>633324</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>675662</v>
+        <v>675785</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8355963044288932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8060585002161736</v>
+        <v>0.807436796127321</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8614148930140753</v>
+        <v>0.8615719316312861</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>762</v>
@@ -4794,19 +4794,19 @@
         <v>791237</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>767751</v>
+        <v>768024</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>811907</v>
+        <v>812352</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8575110819846236</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8320578092540795</v>
+        <v>0.832353649219007</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8799115048703142</v>
+        <v>0.8803945992760647</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1379</v>
@@ -4815,19 +4815,19 @@
         <v>1446648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1418262</v>
+        <v>1409851</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1479199</v>
+        <v>1475419</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8474417352395147</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8308132177178782</v>
+        <v>0.8258861214148934</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8665096691313021</v>
+        <v>0.8642953815267874</v>
       </c>
     </row>
     <row r="6">
@@ -4844,19 +4844,19 @@
         <v>5233</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1622</v>
+        <v>1628</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13819</v>
+        <v>14189</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.00667188716679773</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.002067566674352782</v>
+        <v>0.002075056562074847</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01761843698609857</v>
+        <v>0.01809023795378977</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>13</v>
@@ -4865,19 +4865,19 @@
         <v>14900</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>7994</v>
+        <v>8230</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>25680</v>
+        <v>25310</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01614812522217586</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.00866348385600964</v>
+        <v>0.008919541774655914</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02783067629279636</v>
+        <v>0.02742986322705565</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>16</v>
@@ -4886,19 +4886,19 @@
         <v>20133</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>11331</v>
+        <v>11526</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>31752</v>
+        <v>32307</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.01179400724967343</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.006637477644230037</v>
+        <v>0.006751719250776934</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01860026004933117</v>
+        <v>0.0189254102646172</v>
       </c>
     </row>
     <row r="7">
@@ -4915,19 +4915,19 @@
         <v>121707</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>101309</v>
+        <v>101768</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>143069</v>
+        <v>143363</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1551667153552599</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.129161483346698</v>
+        <v>0.1297465395226957</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1824014778728842</v>
+        <v>0.1827763830421631</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>112</v>
@@ -4936,19 +4936,19 @@
         <v>116576</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>97584</v>
+        <v>97026</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>138329</v>
+        <v>139636</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1263407927932006</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1057578243986896</v>
+        <v>0.105152830891272</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1499151487053183</v>
+        <v>0.1513314288041203</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>227</v>
@@ -4957,19 +4957,19 @@
         <v>238283</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>208254</v>
+        <v>209970</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>265814</v>
+        <v>270625</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1395856550231224</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1219946635335381</v>
+        <v>0.1229999999238401</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1557130539745</v>
+        <v>0.1585314447073733</v>
       </c>
     </row>
     <row r="8">
@@ -5064,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5806</v>
+        <v>5599</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.001453742259739842</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.008140332859346193</v>
+        <v>0.00784951595447019</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>0</v>
@@ -5098,7 +5098,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>5195</v>
+        <v>5144</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0006669605613107513</v>
@@ -5107,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.003341409885344275</v>
+        <v>0.003308821665177898</v>
       </c>
     </row>
     <row r="10">
@@ -5124,19 +5124,19 @@
         <v>646269</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>628870</v>
+        <v>630845</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>660825</v>
+        <v>660838</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9060648801203662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8816714505368605</v>
+        <v>0.884441021121267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9264729932425229</v>
+        <v>0.9264908603004587</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>708</v>
@@ -5145,19 +5145,19 @@
         <v>746228</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>723960</v>
+        <v>727075</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>763406</v>
+        <v>764795</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8868770293183217</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8604115751542381</v>
+        <v>0.8641136958110179</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9072925022016214</v>
+        <v>0.9089436474718957</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1336</v>
@@ -5166,19 +5166,19 @@
         <v>1392497</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1365603</v>
+        <v>1365668</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1415874</v>
+        <v>1418532</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8956801989692946</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8783813606691718</v>
+        <v>0.8784236054746051</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9107166819421325</v>
+        <v>0.9124267256809455</v>
       </c>
     </row>
     <row r="11">
@@ -5195,19 +5195,19 @@
         <v>14831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8571</v>
+        <v>8871</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>23821</v>
+        <v>24156</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02079249912713158</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01201713402095812</v>
+        <v>0.01243703657262843</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03339666068491959</v>
+        <v>0.03386675162265161</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>26</v>
@@ -5216,19 +5216,19 @@
         <v>28727</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18742</v>
+        <v>19410</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>41063</v>
+        <v>40478</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03414110344786998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02227503336213903</v>
+        <v>0.02306874619376444</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04880273339179291</v>
+        <v>0.04810765126742698</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>40</v>
@@ -5237,19 +5237,19 @@
         <v>43557</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>31167</v>
+        <v>31562</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>59681</v>
+        <v>59395</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02801691425901881</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.02004725618284409</v>
+        <v>0.02030127781647004</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03838802698715575</v>
+        <v>0.03820373381618763</v>
       </c>
     </row>
     <row r="12">
@@ -5266,19 +5266,19 @@
         <v>51134</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38295</v>
+        <v>38983</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>66213</v>
+        <v>65312</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0716888784927624</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.05368991313903191</v>
+        <v>0.05465452643363655</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.09283087008976686</v>
+        <v>0.09156765757116252</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>63</v>
@@ -5287,19 +5287,19 @@
         <v>66456</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>51055</v>
+        <v>50401</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>83900</v>
+        <v>83142</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0789818672338083</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.06067780907310941</v>
+        <v>0.05990044611849949</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.09971302996025067</v>
+        <v>0.09881301623279129</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>113</v>
@@ -5308,19 +5308,19 @@
         <v>117590</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>97694</v>
+        <v>97526</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>139655</v>
+        <v>141645</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.07563592621037583</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.06283832196351928</v>
+        <v>0.06273025762108121</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.08982901527433711</v>
+        <v>0.09110890493525951</v>
       </c>
     </row>
     <row r="13">
@@ -5459,19 +5459,19 @@
         <v>646049</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>628863</v>
+        <v>629116</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>661064</v>
+        <v>661201</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.9021886261742701</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8781888234858231</v>
+        <v>0.8785423717044052</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.9231566911952126</v>
+        <v>0.9233471598807886</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>558</v>
@@ -5480,19 +5480,19 @@
         <v>583387</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>566518</v>
+        <v>564078</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>598746</v>
+        <v>598524</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.885302448990558</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.8597035259855496</v>
+        <v>0.8560008639579723</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9086102371603925</v>
+        <v>0.9082734004934852</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1174</v>
@@ -5501,19 +5501,19 @@
         <v>1229436</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1205411</v>
+        <v>1204192</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1250713</v>
+        <v>1251464</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.894096276634981</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.8766241263717266</v>
+        <v>0.8757379423238113</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9095698019323903</v>
+        <v>0.9101157364769936</v>
       </c>
     </row>
     <row r="16">
@@ -5530,19 +5530,19 @@
         <v>17293</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>10351</v>
+        <v>10854</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>27307</v>
+        <v>27959</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02414857868540073</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01445534410797537</v>
+        <v>0.01515689709153786</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03813298270089455</v>
+        <v>0.03904353690401798</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>27</v>
@@ -5551,19 +5551,19 @@
         <v>29064</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>20041</v>
+        <v>19869</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41763</v>
+        <v>41831</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04410576959782647</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.03041261519460862</v>
+        <v>0.03015212968842641</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06337560328162191</v>
+        <v>0.06347882536114398</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>44</v>
@@ -5572,19 +5572,19 @@
         <v>46357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>33343</v>
+        <v>34014</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>61309</v>
+        <v>61002</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03371264774192173</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.0242486321324241</v>
+        <v>0.02473605131027154</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04458607357882077</v>
+        <v>0.04436307023013</v>
       </c>
     </row>
     <row r="17">
@@ -5601,19 +5601,19 @@
         <v>52749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>39636</v>
+        <v>39325</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>67998</v>
+        <v>66983</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.07366279514032922</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.05535001166628733</v>
+        <v>0.05491630307800212</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09495738380476691</v>
+        <v>0.0935400917175208</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -5622,19 +5622,19 @@
         <v>46518</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34459</v>
+        <v>33099</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>61411</v>
+        <v>62340</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.07059178141161557</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05229162233394433</v>
+        <v>0.05022892170856717</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0931932069900617</v>
+        <v>0.09460193906093661</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>93</v>
@@ -5643,19 +5643,19 @@
         <v>99267</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>80623</v>
+        <v>81691</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>119807</v>
+        <v>119598</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07219107562309725</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05863210744623565</v>
+        <v>0.0594088521411973</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08712887065090195</v>
+        <v>0.08697676141216903</v>
       </c>
     </row>
     <row r="18">
@@ -5763,7 +5763,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>5560</v>
+        <v>5562</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.002565251030216235</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.0128887813939664</v>
+        <v>0.01289338090247799</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1</v>
@@ -5784,7 +5784,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>4478</v>
+        <v>6182</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.001286381136996331</v>
@@ -5793,7 +5793,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.005205489869846737</v>
+        <v>0.007186516464460191</v>
       </c>
     </row>
     <row r="20">
@@ -5810,19 +5810,19 @@
         <v>393707</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>380262</v>
+        <v>381005</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>405161</v>
+        <v>405455</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9180877953386133</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.8867337637783335</v>
+        <v>0.8884662420163933</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9447976567630061</v>
+        <v>0.9454822038674342</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>366</v>
@@ -5831,19 +5831,19 @@
         <v>390967</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>376018</v>
+        <v>376281</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>401992</v>
+        <v>402466</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9063758340632746</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8717191378741714</v>
+        <v>0.8723298912782522</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9319341426261617</v>
+        <v>0.9330347709255622</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>730</v>
@@ -5852,19 +5852,19 @@
         <v>784674</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>768364</v>
+        <v>766149</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>800960</v>
+        <v>800362</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9122146679587337</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8932533843672886</v>
+        <v>0.8906780965539889</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9311474448256544</v>
+        <v>0.9304521453591393</v>
       </c>
     </row>
     <row r="21">
@@ -5881,19 +5881,19 @@
         <v>14646</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>7443</v>
+        <v>8379</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>24064</v>
+        <v>25454</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03415335735530587</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0173554613865896</v>
+        <v>0.01953970005639205</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05611478984316639</v>
+        <v>0.05935523177489991</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>15</v>
@@ -5902,19 +5902,19 @@
         <v>15701</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>9253</v>
+        <v>9290</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>25977</v>
+        <v>25281</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03640028281537825</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02145058598342861</v>
+        <v>0.02153728930866388</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.06022239681965606</v>
+        <v>0.05860858484288006</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>28</v>
@@ -5923,19 +5923,19 @@
         <v>30347</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>20616</v>
+        <v>20511</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>42822</v>
+        <v>42472</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03528010966688384</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02396739706034189</v>
+        <v>0.0238446292042381</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04978217295438488</v>
+        <v>0.04937541523000787</v>
       </c>
     </row>
     <row r="22">
@@ -5952,19 +5952,19 @@
         <v>20481</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>12077</v>
+        <v>12997</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>31542</v>
+        <v>31318</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04775884730608083</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02816293591100905</v>
+        <v>0.0303082141533318</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07355331942240312</v>
+        <v>0.07303029231220745</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>22</v>
@@ -5973,19 +5973,19 @@
         <v>23577</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>15170</v>
+        <v>15443</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>34931</v>
+        <v>35164</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05465863209113087</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.03516893642758044</v>
+        <v>0.03580201558919557</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08098005974202144</v>
+        <v>0.0815196833038012</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -5994,19 +5994,19 @@
         <v>44058</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>32620</v>
+        <v>31497</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>59506</v>
+        <v>59544</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05121884123738606</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03792261011952947</v>
+        <v>0.03661652338789661</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.06917805708666516</v>
+        <v>0.06922200357920655</v>
       </c>
     </row>
     <row r="23">
@@ -6098,19 +6098,19 @@
         <v>3049</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>989</v>
+        <v>995</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9093</v>
+        <v>8296</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001153759278039522</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.000374427580595689</v>
+        <v>0.0003764417031839153</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.003440808065703814</v>
+        <v>0.003139546048573191</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -6122,7 +6122,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>4446</v>
+        <v>5257</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0003876502554262521</v>
@@ -6131,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.001557740134623946</v>
+        <v>0.001841763830757093</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -6140,19 +6140,19 @@
         <v>4155</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1037</v>
+        <v>1107</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>9648</v>
+        <v>10652</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0007559395527422831</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.0001887040289113842</v>
+        <v>0.0002013205437847694</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.001755216530995687</v>
+        <v>0.001937752605524328</v>
       </c>
     </row>
     <row r="25">
@@ -6169,19 +6169,19 @@
         <v>2341437</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2309509</v>
+        <v>2308464</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>2377261</v>
+        <v>2372710</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.8860490890248943</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8739669333022378</v>
+        <v>0.8735715331689456</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.8996055722272731</v>
+        <v>0.897883303493323</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2394</v>
@@ -6190,19 +6190,19 @@
         <v>2511819</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>2469784</v>
+        <v>2474602</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>2544210</v>
+        <v>2545229</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.8799674200505185</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.8652411775379878</v>
+        <v>0.8669289670306614</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.8913146569829347</v>
+        <v>0.891671740212741</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>4619</v>
@@ -6211,19 +6211,19 @@
         <v>4853256</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>4802566</v>
+        <v>4801415</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4901573</v>
+        <v>4896721</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.8828910425728606</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.8736695094455063</v>
+        <v>0.8734601258789739</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.8916806104164633</v>
+        <v>0.8907979148872462</v>
       </c>
     </row>
     <row r="26">
@@ -6240,19 +6240,19 @@
         <v>52003</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>38322</v>
+        <v>38555</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>68051</v>
+        <v>69409</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01967886284524479</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01450203484174901</v>
+        <v>0.01458983650098843</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02575200824003588</v>
+        <v>0.02626570494417708</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>81</v>
@@ -6261,19 +6261,19 @@
         <v>88392</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>70706</v>
+        <v>70400</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>109733</v>
+        <v>110859</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03096659718851337</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02477041741421721</v>
+        <v>0.02466342329639802</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03844299868889046</v>
+        <v>0.03883741053076176</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>128</v>
@@ -6282,19 +6282,19 @@
         <v>140395</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>117889</v>
+        <v>115944</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>167165</v>
+        <v>166361</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02554027844422815</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02144606522057237</v>
+        <v>0.02109223478795134</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03041025768033709</v>
+        <v>0.03026399221659801</v>
       </c>
     </row>
     <row r="27">
@@ -6311,19 +6311,19 @@
         <v>246071</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>214321</v>
+        <v>218459</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>275622</v>
+        <v>276502</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.09311828885182134</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.08110349222829576</v>
+        <v>0.08266952856185988</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1043013394258197</v>
+        <v>0.1046342409067765</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>240</v>
@@ -6332,19 +6332,19 @@
         <v>253128</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>225240</v>
+        <v>225653</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>289306</v>
+        <v>287727</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.08867833250554184</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.0789086518862922</v>
+        <v>0.0790530105801851</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.1013526244977009</v>
+        <v>0.1007994501661872</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>474</v>
@@ -6353,19 +6353,19 @@
         <v>499198</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>457795</v>
+        <v>458871</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>544610</v>
+        <v>546777</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.09081273943016903</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.08328086072453149</v>
+        <v>0.08347650252064444</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.0990739479048298</v>
+        <v>0.09946818907100091</v>
       </c>
     </row>
     <row r="28">
@@ -6744,19 +6744,19 @@
         <v>344989</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>323378</v>
+        <v>323688</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>363390</v>
+        <v>362958</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7612449478970778</v>
+        <v>0.7612449478970779</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.713557811401611</v>
+        <v>0.7142409743951488</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8018479607721261</v>
+        <v>0.8008933437192848</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>692</v>
@@ -6765,19 +6765,19 @@
         <v>502197</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>484061</v>
+        <v>486335</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>516235</v>
+        <v>517116</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8521949775050609</v>
+        <v>0.8521949775050607</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8214203877038926</v>
+        <v>0.8252786248874497</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8760174053073518</v>
+        <v>0.8775113973714525</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>995</v>
@@ -6786,19 +6786,19 @@
         <v>847186</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>822565</v>
+        <v>821283</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>870754</v>
+        <v>873098</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8126571805756776</v>
+        <v>0.8126571805756775</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7890398701440158</v>
+        <v>0.7878102005215786</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8352648241608723</v>
+        <v>0.8375131090131719</v>
       </c>
     </row>
     <row r="6">
@@ -6815,19 +6815,19 @@
         <v>6596</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2700</v>
+        <v>2061</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15270</v>
+        <v>14418</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01455402977652055</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.005956831034137641</v>
+        <v>0.004546813025882743</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03369548819362635</v>
+        <v>0.03181335009736621</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>10</v>
@@ -6836,19 +6836,19 @@
         <v>6725</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3308</v>
+        <v>3365</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>11620</v>
+        <v>12056</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01141104572437168</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.005614265658720898</v>
+        <v>0.005709957225847558</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01971843204885225</v>
+        <v>0.0204577066258699</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -6857,19 +6857,19 @@
         <v>13320</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>7650</v>
+        <v>7373</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>21562</v>
+        <v>23176</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.0127773637535331</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.007338196610113968</v>
+        <v>0.007072789213176654</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02068288959699851</v>
+        <v>0.02223106318749113</v>
       </c>
     </row>
     <row r="7">
@@ -6886,19 +6886,19 @@
         <v>101606</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>83457</v>
+        <v>84225</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>123135</v>
+        <v>122304</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2242010223264017</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1841552457966899</v>
+        <v>0.1858477491830738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2717064549111867</v>
+        <v>0.2698723430020971</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>115</v>
@@ -6907,19 +6907,19 @@
         <v>80377</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>67019</v>
+        <v>65181</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>97344</v>
+        <v>96524</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1363939767705675</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1137269633202913</v>
+        <v>0.1106085929740132</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1651865711253006</v>
+        <v>0.1637945798699024</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>219</v>
@@ -6928,19 +6928,19 @@
         <v>181983</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>158999</v>
+        <v>157481</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>206879</v>
+        <v>208083</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1745654556707893</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1525188712024378</v>
+        <v>0.1510626424019189</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1984467731438164</v>
+        <v>0.1996019964424581</v>
       </c>
     </row>
     <row r="8">
@@ -7079,19 +7079,19 @@
         <v>821215</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>796743</v>
+        <v>797254</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>840754</v>
+        <v>840038</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.8905382629653374</v>
+        <v>0.8905382629653373</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8639997741773753</v>
+        <v>0.8645538898325698</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9117263778506783</v>
+        <v>0.9109494497410358</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1454</v>
@@ -7100,19 +7100,19 @@
         <v>1012013</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>995928</v>
+        <v>996881</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>1025279</v>
+        <v>1025534</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9308245086399353</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9160300949250862</v>
+        <v>0.9169068205577476</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9430260262914848</v>
+        <v>0.9432610545779458</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>2237</v>
@@ -7121,19 +7121,19 @@
         <v>1833228</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1806327</v>
+        <v>1806998</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1857729</v>
+        <v>1858171</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9123361087097989</v>
+        <v>0.9123361087097988</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8989482567041471</v>
+        <v>0.8992824195960092</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9245295727252916</v>
+        <v>0.9247491553915187</v>
       </c>
     </row>
     <row r="11">
@@ -7150,19 +7150,19 @@
         <v>4324</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1206</v>
+        <v>1201</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>10475</v>
+        <v>10870</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.0046893188649253</v>
+        <v>0.004689318864925301</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.001307385376002038</v>
+        <v>0.001302532413868486</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.01135911521249289</v>
+        <v>0.01178734792992532</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>6</v>
@@ -7171,19 +7171,19 @@
         <v>4493</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1421</v>
+        <v>1763</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9623</v>
+        <v>10532</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.004132259994345817</v>
+        <v>0.004132259994345818</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.001307273974741408</v>
+        <v>0.001622004812273709</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.008850960986666092</v>
+        <v>0.009687206491750965</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>10</v>
@@ -7192,19 +7192,19 @@
         <v>8817</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>4508</v>
+        <v>4475</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>16017</v>
+        <v>16856</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.004387908715427755</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.00224331266020123</v>
+        <v>0.002226939964122902</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.007971187574085985</v>
+        <v>0.008388715387303439</v>
       </c>
     </row>
     <row r="12">
@@ -7221,19 +7221,19 @@
         <v>96617</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>77853</v>
+        <v>77713</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>121276</v>
+        <v>119933</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1047724181697372</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.08442516064981004</v>
+        <v>0.08427292083690359</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1315139957187045</v>
+        <v>0.1300573423184699</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>110</v>
@@ -7242,19 +7242,19 @@
         <v>70716</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>58342</v>
+        <v>58122</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>86990</v>
+        <v>86140</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.06504323136571886</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05366145529663262</v>
+        <v>0.05345955874544431</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0800112828206401</v>
+        <v>0.07922990816265701</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>204</v>
@@ -7263,19 +7263,19 @@
         <v>167333</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>143926</v>
+        <v>142960</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>196328</v>
+        <v>193014</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.0832759825747735</v>
+        <v>0.08327598257477349</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07162718227390594</v>
+        <v>0.07114653969663517</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.09770589647274272</v>
+        <v>0.09605636144755623</v>
       </c>
     </row>
     <row r="13">
@@ -7414,19 +7414,19 @@
         <v>958584</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>937254</v>
+        <v>935766</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>975269</v>
+        <v>973703</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.932203840756031</v>
+        <v>0.9322038407560309</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.9114609303003018</v>
+        <v>0.9100136520017053</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.948429011355111</v>
+        <v>0.9469065455842708</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1439</v>
@@ -7435,19 +7435,19 @@
         <v>996350</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>985427</v>
+        <v>985402</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>1004989</v>
+        <v>1005659</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.964837991287249</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.954261171057056</v>
+        <v>0.9542368784339426</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.9732045594029227</v>
+        <v>0.9738533511550909</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2383</v>
@@ -7456,19 +7456,19 @@
         <v>1954934</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>1930740</v>
+        <v>1929981</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>1973797</v>
+        <v>1973288</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.948555443573057</v>
+        <v>0.9485554435730571</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.93681637820584</v>
+        <v>0.9364481690757805</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.9577079455665816</v>
+        <v>0.9574609967156845</v>
       </c>
     </row>
     <row r="16">
@@ -7485,19 +7485,19 @@
         <v>12635</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6265</v>
+        <v>5846</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23644</v>
+        <v>23948</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01228695306678093</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.00609245942319777</v>
+        <v>0.00568531614722028</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02299300801457895</v>
+        <v>0.02328897469986024</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>14</v>
@@ -7506,19 +7506,19 @@
         <v>9844</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5264</v>
+        <v>5727</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>17040</v>
+        <v>17232</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.009532252301441752</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.005097177144394042</v>
+        <v>0.005546028074544482</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01650098415106603</v>
+        <v>0.01668674383961869</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>24</v>
@@ -7527,19 +7527,19 @@
         <v>22478</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>14705</v>
+        <v>14009</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34920</v>
+        <v>35358</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01090668815835335</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007135245301817956</v>
+        <v>0.006797277890020024</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0169434114084002</v>
+        <v>0.0171563165920486</v>
       </c>
     </row>
     <row r="17">
@@ -7556,19 +7556,19 @@
         <v>57080</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>42063</v>
+        <v>43114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>78850</v>
+        <v>76479</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05550920617718792</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0409054888711021</v>
+        <v>0.04192725212335306</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07668020405778088</v>
+        <v>0.07437474195631137</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>43</v>
@@ -7577,19 +7577,19 @@
         <v>26467</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>19077</v>
+        <v>19028</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>35388</v>
+        <v>37102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02562975641130921</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.018473267553368</v>
+        <v>0.01842660672543084</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.0342683710710715</v>
+        <v>0.03592821658295126</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>99</v>
@@ -7598,19 +7598,19 @@
         <v>83547</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>66323</v>
+        <v>68602</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>105098</v>
+        <v>106322</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04053786826858966</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03218070676555744</v>
+        <v>0.0332864691414475</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05099489751381198</v>
+        <v>0.05158853334270623</v>
       </c>
     </row>
     <row r="18">
@@ -7749,19 +7749,19 @@
         <v>878945</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>858391</v>
+        <v>857875</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>895125</v>
+        <v>893877</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.9286876277077623</v>
+        <v>0.9286876277077624</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9069697717074549</v>
+        <v>0.9064244301571265</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.945782523940763</v>
+        <v>0.9444641257698683</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1211</v>
@@ -7770,19 +7770,19 @@
         <v>825869</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>810894</v>
+        <v>809661</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>838988</v>
+        <v>838761</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9352134124662125</v>
+        <v>0.9352134124662127</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9182555028318221</v>
+        <v>0.9168592019813755</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.950068965377085</v>
+        <v>0.9498118641241541</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2068</v>
@@ -7791,19 +7791,19 @@
         <v>1704814</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1680123</v>
+        <v>1682383</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1725816</v>
+        <v>1725662</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9318375257510472</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9183415240323645</v>
+        <v>0.9195767111099736</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9433168209719732</v>
+        <v>0.9432326021224537</v>
       </c>
     </row>
     <row r="21">
@@ -7820,19 +7820,19 @@
         <v>35288</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>24514</v>
+        <v>24962</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>49223</v>
+        <v>49562</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.03728512862088691</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.0259015334730323</v>
+        <v>0.02637498096106689</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.05200904287276197</v>
+        <v>0.05236710620248065</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>31</v>
@@ -7841,19 +7841,19 @@
         <v>23964</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>16499</v>
+        <v>15902</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>35623</v>
+        <v>35464</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02713704279116449</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01868291388889375</v>
+        <v>0.01800782737675057</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.04033938716998162</v>
+        <v>0.04015947405878526</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>64</v>
@@ -7862,19 +7862,19 @@
         <v>59252</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>45786</v>
+        <v>46682</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>76601</v>
+        <v>78669</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03238680039197359</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02502622314305682</v>
+        <v>0.02551604699635275</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04186951514411043</v>
+        <v>0.04299974665941324</v>
       </c>
     </row>
     <row r="22">
@@ -7891,19 +7891,19 @@
         <v>32205</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21136</v>
+        <v>21049</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48459</v>
+        <v>49817</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03402724367135083</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02233255100625407</v>
+        <v>0.02224056867809287</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05120153469042138</v>
+        <v>0.05263612921681081</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>44</v>
@@ -7912,19 +7912,19 @@
         <v>33248</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>23769</v>
+        <v>23601</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>45192</v>
+        <v>46077</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.03764954474262291</v>
+        <v>0.03764954474262292</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.02691587117560777</v>
+        <v>0.02672558204059502</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.05117500394319423</v>
+        <v>0.05217797176735311</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>74</v>
@@ -7933,19 +7933,19 @@
         <v>65452</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>50389</v>
+        <v>50354</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>87631</v>
+        <v>85245</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03577567385697927</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.02754220708057135</v>
+        <v>0.02752304726315065</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04789853268665101</v>
+        <v>0.04659429297987251</v>
       </c>
     </row>
     <row r="23">
@@ -8084,19 +8084,19 @@
         <v>3003733</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>2962925</v>
+        <v>2961431</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3041633</v>
+        <v>3042683</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.896614569083358</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.8844333447332858</v>
+        <v>0.8839872268329237</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9079277327025815</v>
+        <v>0.9082409908069281</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>4796</v>
@@ -8105,19 +8105,19 @@
         <v>3336429</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>3307297</v>
+        <v>3309402</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3361091</v>
+        <v>3363010</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.928782309499928</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9206724192576081</v>
+        <v>0.9212584644502304</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9356473882444873</v>
+        <v>0.9361817265440875</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>7683</v>
@@ -8126,19 +8126,19 @@
         <v>6340163</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>6291921</v>
+        <v>6290645</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>6389695</v>
+        <v>6389052</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.9132595140042227</v>
+        <v>0.9132595140042228</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9063105796459109</v>
+        <v>0.9061267578152075</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.920394385823216</v>
+        <v>0.9203016896271395</v>
       </c>
     </row>
     <row r="26">
@@ -8155,19 +8155,19 @@
         <v>58843</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>44518</v>
+        <v>42504</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>78009</v>
+        <v>76480</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01756456420302589</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01328848929701345</v>
+        <v>0.01268754223735931</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02328562218081565</v>
+        <v>0.02282927396092728</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>61</v>
@@ -8176,19 +8176,19 @@
         <v>45025</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>34057</v>
+        <v>34423</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>58226</v>
+        <v>60914</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01253388142196805</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.009480569003977391</v>
+        <v>0.009582578594003879</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01620886240914685</v>
+        <v>0.01695711884370236</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>113</v>
@@ -8197,19 +8197,19 @@
         <v>103868</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>85155</v>
+        <v>84429</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>127478</v>
+        <v>125685</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.01496147686395008</v>
+        <v>0.01496147686395009</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.012266007370755</v>
+        <v>0.01216140909309522</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0183624299371263</v>
+        <v>0.01810405179721801</v>
       </c>
     </row>
     <row r="27">
@@ -8226,19 +8226,19 @@
         <v>287507</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>254018</v>
+        <v>251887</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>329789</v>
+        <v>324362</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.08582086671361612</v>
+        <v>0.08582086671361611</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.0758244944284346</v>
+        <v>0.07518835125923883</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.09844217090687468</v>
+        <v>0.0968220283180031</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>312</v>
@@ -8247,19 +8247,19 @@
         <v>210808</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>187693</v>
+        <v>186294</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>237278</v>
+        <v>235486</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.05868380907810388</v>
+        <v>0.05868380907810389</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.05224926930661831</v>
+        <v>0.05185979324206466</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.06605241431751482</v>
+        <v>0.06555374809332683</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>596</v>
@@ -8268,19 +8268,19 @@
         <v>498315</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>453075</v>
+        <v>454979</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>546627</v>
+        <v>543143</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.07177900913182717</v>
+        <v>0.07177900913182718</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.06526246753424465</v>
+        <v>0.06553681344455051</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.07873814154062882</v>
+        <v>0.07823630735851141</v>
       </c>
     </row>
     <row r="28">
